--- a/data/CS3/case30/case30_2035.xlsx
+++ b/data/CS3/case30/case30_2035.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B846520A-6C72-4F50-9A1A-6015F8F16903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9DE0DE-C413-45BA-8898-DCC472BE3E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-12270" windowWidth="19200" windowHeight="21000" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2964" yWindow="2964" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7451,8 +7451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
@@ -22353,7 +22354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>

--- a/data/CS3/case30/case30_2035.xlsx
+++ b/data/CS3/case30/case30_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9DE0DE-C413-45BA-8898-DCC472BE3E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97B2A39-EF40-43D2-BA48-82F57F74A923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2964" yWindow="2964" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2035.xlsx
+++ b/data/CS3/case30/case30_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97B2A39-EF40-43D2-BA48-82F57F74A923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC1D4FF-AC60-48CE-B56E-233E1F147F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2035.xlsx
+++ b/data/CS3/case30/case30_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC1D4FF-AC60-48CE-B56E-233E1F147F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83444110-CA81-49E6-A304-34C834E57783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7451,7 +7451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -22354,7 +22354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>

--- a/data/CS3/case30/case30_2035.xlsx
+++ b/data/CS3/case30/case30_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83444110-CA81-49E6-A304-34C834E57783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7AFABE-0048-4B6A-B8D9-21544AC0BA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7451,8 +7451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
@@ -22354,7 +22353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>

--- a/data/CS3/case30/case30_2035.xlsx
+++ b/data/CS3/case30/case30_2035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7AFABE-0048-4B6A-B8D9-21544AC0BA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C95A57A-3EEF-4178-8F98-14F2253E3EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2035.xlsx
+++ b/data/CS3/case30/case30_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C95A57A-3EEF-4178-8F98-14F2253E3EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B0C2B2-574D-436B-92B9-33B43502A1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2035.xlsx
+++ b/data/CS3/case30/case30_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B0C2B2-574D-436B-92B9-33B43502A1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75178542-C10E-42ED-B373-DD6694CFD28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2035.xlsx
+++ b/data/CS3/case30/case30_2035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75178542-C10E-42ED-B373-DD6694CFD28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA41693-3BF0-4B0B-BE7C-B0DFF4663796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2035.xlsx
+++ b/data/CS3/case30/case30_2035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA41693-3BF0-4B0B-BE7C-B0DFF4663796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9938A81B-2387-4FF7-9991-0318AA93DB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS3/case30/case30_2035.xlsx
+++ b/data/CS3/case30/case30_2035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9938A81B-2387-4FF7-9991-0318AA93DB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA28D4A-F1A7-4F3C-92C5-5DF2FE952723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2035.xlsx
+++ b/data/CS3/case30/case30_2035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA28D4A-F1A7-4F3C-92C5-5DF2FE952723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BB58CC-0EB6-488C-A1F7-1C9597EAC0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2035.xlsx
+++ b/data/CS3/case30/case30_2035.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BB58CC-0EB6-488C-A1F7-1C9597EAC0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7DA532-56FE-4A05-8AF1-D67F8AB4072F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2035.xlsx
+++ b/data/CS3/case30/case30_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7DA532-56FE-4A05-8AF1-D67F8AB4072F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A77DDF-FF2B-4074-8844-349FE63BE36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48420" yWindow="-2760" windowWidth="16650" windowHeight="9630" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2035.xlsx
+++ b/data/CS3/case30/case30_2035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A77DDF-FF2B-4074-8844-349FE63BE36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FC7E7D-14BB-488D-90A3-6570FFEC5F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="48420" yWindow="-2760" windowWidth="16650" windowHeight="9630" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
